--- a/modelacao/use_casaes/procurar_utilizador.xlsx
+++ b/modelacao/use_casaes/procurar_utilizador.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\Desktop\use casaes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\Desktop\LI4\modelacao\use_casaes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF1DB7CB-E7D9-42FF-92F5-4C3D39077586}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE1FC49E-198F-4884-9D83-AF54D1784F71}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="37">
   <si>
     <t>Actor input</t>
   </si>
@@ -135,15 +135,6 @@
   </si>
   <si>
     <t>3.1. Retrocede da pesquisa</t>
-  </si>
-  <si>
-    <t>3.1.1. Introduz novo termo de pesquisa</t>
-  </si>
-  <si>
-    <t>Volta a passo 2</t>
-  </si>
-  <si>
-    <t>Alternativa 1 [Introduz novo temo de pesquisa] (passo 4)</t>
   </si>
   <si>
     <t>Procurar Utilizador</t>
@@ -195,7 +186,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="25">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -415,7 +406,31 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
       <right/>
       <top/>
       <bottom style="medium">
@@ -424,48 +439,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color auto="1"/>
       </left>
@@ -499,7 +472,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
@@ -523,18 +496,21 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -566,9 +542,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -584,70 +557,45 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -982,38 +930,38 @@
       <c r="B2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="21"/>
+      <c r="D2" s="22"/>
     </row>
     <row r="3" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="20" t="s">
+      <c r="C3" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="21"/>
+      <c r="D3" s="22"/>
     </row>
     <row r="4" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="20" t="s">
+      <c r="C4" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="21"/>
+      <c r="D4" s="22"/>
     </row>
     <row r="5" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="22"/>
-      <c r="D5" s="23"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="24"/>
     </row>
     <row r="6" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="24" t="s">
+      <c r="B6" s="25" t="s">
         <v>2</v>
       </c>
       <c r="C6" s="8" t="s">
@@ -1024,75 +972,75 @@
       </c>
     </row>
     <row r="7" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="25"/>
+      <c r="B7" s="26"/>
       <c r="C7" s="5"/>
       <c r="D7" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="8" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="25"/>
+      <c r="B8" s="26"/>
       <c r="C8" s="5" t="s">
         <v>11</v>
       </c>
       <c r="D8" s="1"/>
     </row>
     <row r="9" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="25"/>
+      <c r="B9" s="26"/>
       <c r="C9" s="5"/>
       <c r="D9" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="10" spans="2:4" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="25"/>
+      <c r="B10" s="26"/>
       <c r="C10" s="11" t="s">
         <v>13</v>
       </c>
       <c r="D10" s="1"/>
     </row>
     <row r="11" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="25"/>
+      <c r="B11" s="26"/>
       <c r="C11" s="5"/>
       <c r="D11" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="12" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="25"/>
+      <c r="B12" s="26"/>
       <c r="C12" s="5"/>
       <c r="D12" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="13" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="25"/>
+      <c r="B13" s="26"/>
       <c r="C13" s="5" t="s">
         <v>16</v>
       </c>
       <c r="D13" s="1"/>
     </row>
     <row r="14" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="25"/>
+      <c r="B14" s="26"/>
       <c r="C14" s="5"/>
       <c r="D14" s="1" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="15" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="25"/>
+      <c r="B15" s="26"/>
       <c r="C15" s="5"/>
       <c r="D15" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="16" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="25"/>
+      <c r="B16" s="26"/>
       <c r="C16" s="6"/>
       <c r="D16" s="3"/>
     </row>
     <row r="17" spans="2:4" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="18" t="s">
+      <c r="B17" s="19" t="s">
         <v>21</v>
       </c>
       <c r="C17" s="4"/>
@@ -1101,7 +1049,7 @@
       </c>
     </row>
     <row r="18" spans="2:4" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="19"/>
+      <c r="B18" s="20"/>
       <c r="C18" s="5"/>
       <c r="D18" s="1" t="s">
         <v>20</v>
@@ -1117,7 +1065,7 @@
       </c>
     </row>
     <row r="20" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="18" t="s">
+      <c r="B20" s="19" t="s">
         <v>24</v>
       </c>
       <c r="C20" s="4"/>
@@ -1126,14 +1074,14 @@
       </c>
     </row>
     <row r="21" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="19"/>
+      <c r="B21" s="20"/>
       <c r="C21" s="5"/>
       <c r="D21" s="1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="22" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="19"/>
+      <c r="B22" s="20"/>
       <c r="C22" s="6"/>
       <c r="D22" s="3"/>
     </row>
@@ -1156,7 +1104,7 @@
   <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1170,46 +1118,46 @@
       <c r="A1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="C1" s="21"/>
+      <c r="B1" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="22"/>
     </row>
     <row r="2" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="21"/>
+      <c r="C2" s="22"/>
     </row>
     <row r="3" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="21"/>
+      <c r="C3" s="22"/>
     </row>
     <row r="4" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="47" t="s">
+      <c r="A4" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="C4" s="23"/>
+      <c r="B4" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="24"/>
     </row>
     <row r="5" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="48" t="s">
+      <c r="B5" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="49" t="s">
+      <c r="C5" s="17" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1229,7 +1177,7 @@
       <c r="A8" s="33"/>
       <c r="B8" s="35"/>
       <c r="C8" s="31" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1249,94 +1197,83 @@
     </row>
     <row r="12" spans="1:3" ht="48.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="33"/>
-      <c r="B12" s="50"/>
-      <c r="C12" s="16" t="s">
+      <c r="C12" s="13" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="48.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="33"/>
-      <c r="B13" s="51" t="s">
-        <v>38</v>
-      </c>
-      <c r="C13" s="36"/>
-    </row>
-    <row r="14" spans="1:3" ht="48.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="26" t="s">
+      <c r="B13" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" s="14"/>
+    </row>
+    <row r="14" spans="1:3" ht="48.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="B14" s="55"/>
-      <c r="C14" s="56" t="s">
-        <v>39</v>
+      <c r="B14" s="39"/>
+      <c r="C14" s="46" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="63" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="27"/>
-      <c r="B15" s="14"/>
-      <c r="C15" s="15"/>
-    </row>
-    <row r="16" spans="1:3" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="26" t="s">
+      <c r="A15" s="28"/>
+      <c r="B15" s="36"/>
+      <c r="C15" s="47"/>
+    </row>
+    <row r="16" spans="1:3" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="17" t="s">
+      <c r="B16" s="40" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="13"/>
+      <c r="C16" s="45"/>
     </row>
     <row r="17" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="29"/>
-      <c r="B17" s="45"/>
-      <c r="C17" s="28"/>
+      <c r="B17" s="41"/>
+      <c r="C17" s="43"/>
     </row>
     <row r="18" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="29"/>
-      <c r="B18" s="45"/>
-      <c r="C18" s="28"/>
+      <c r="B18" s="41"/>
+      <c r="C18" s="43"/>
     </row>
     <row r="19" spans="1:3" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="27"/>
-      <c r="B19" s="46"/>
+      <c r="A19" s="28"/>
+      <c r="B19" s="42"/>
       <c r="C19" s="44"/>
     </row>
     <row r="20" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="52" t="s">
-        <v>34</v>
-      </c>
-      <c r="B20" s="38" t="s">
-        <v>32</v>
-      </c>
-      <c r="C20" s="40"/>
+      <c r="A20" s="37"/>
+      <c r="B20" s="37"/>
+      <c r="C20" s="38"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="53"/>
-      <c r="B21" s="39"/>
-      <c r="C21" s="41"/>
+      <c r="A21" s="37"/>
+      <c r="B21" s="37"/>
+      <c r="C21" s="38"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="53"/>
-      <c r="B22" s="37"/>
-      <c r="C22" s="41" t="s">
-        <v>33</v>
-      </c>
+      <c r="A22" s="37"/>
+      <c r="B22" s="38"/>
+      <c r="C22" s="38"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="53"/>
-      <c r="B23" s="37"/>
-      <c r="C23" s="41"/>
-    </row>
-    <row r="24" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="54"/>
-      <c r="B24" s="42"/>
-      <c r="C24" s="43"/>
+      <c r="A23" s="37"/>
+      <c r="B23" s="38"/>
+      <c r="C23" s="38"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="37"/>
+      <c r="B24" s="38"/>
+      <c r="C24" s="38"/>
     </row>
   </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="A20:A24"/>
-    <mergeCell ref="B22:B24"/>
-    <mergeCell ref="C22:C24"/>
+  <mergeCells count="15">
+    <mergeCell ref="C14:C15"/>
     <mergeCell ref="A14:A15"/>
     <mergeCell ref="A16:A19"/>
     <mergeCell ref="B1:C1"/>
@@ -1348,8 +1285,9 @@
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="C8:C11"/>
     <mergeCell ref="B8:B11"/>
-    <mergeCell ref="C17:C19"/>
-    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="B16:B19"/>
+    <mergeCell ref="C16:C19"/>
+    <mergeCell ref="B14:B15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/modelacao/use_casaes/procurar_utilizador.xlsx
+++ b/modelacao/use_casaes/procurar_utilizador.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\Desktop\LI4\modelacao\use_casaes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE1FC49E-198F-4884-9D83-AF54D1784F71}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1655001-87C1-4F34-A4E4-6B0CA5863137}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="735" yWindow="-15465" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="32">
   <si>
     <t>Actor input</t>
   </si>
@@ -128,28 +128,13 @@
     <t>3. Apresenta lista de resultados por ordem de relevância</t>
   </si>
   <si>
-    <t>Exception 1 [Sem resultados]  (passo 2)</t>
-  </si>
-  <si>
-    <t>Exception 2 [Não seleciona  resultado]  (passo 4)</t>
-  </si>
-  <si>
-    <t>3.1. Retrocede da pesquisa</t>
-  </si>
-  <si>
     <t>Procurar Utilizador</t>
   </si>
   <si>
-    <t>Perfil de utilizador selecionado</t>
-  </si>
-  <si>
     <t>2. Pesquisa na base de dados por utilizadores com alcunha ou nome semelhantes ao termo de pesquisa</t>
   </si>
   <si>
-    <t>4. Seleciona resultado da lista apresentada</t>
-  </si>
-  <si>
-    <t>2.1 Informa que a pesquisa não devolveu resultados</t>
+    <t>Lista de resultados da pesquisa apresentada</t>
   </si>
 </sst>
 </file>
@@ -186,7 +171,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -420,17 +405,36 @@
     </border>
     <border>
       <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
         <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
         <color indexed="64"/>
-      </left>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right/>
       <top/>
       <bottom style="medium">
@@ -438,41 +442,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
@@ -496,20 +470,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -536,15 +504,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -563,39 +522,33 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -930,38 +883,38 @@
       <c r="B2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="21" t="s">
+      <c r="C2" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="22"/>
+      <c r="D2" s="20"/>
     </row>
     <row r="3" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="21" t="s">
+      <c r="C3" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="22"/>
+      <c r="D3" s="20"/>
     </row>
     <row r="4" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="21" t="s">
+      <c r="C4" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="22"/>
+      <c r="D4" s="20"/>
     </row>
     <row r="5" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="23"/>
-      <c r="D5" s="24"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="22"/>
     </row>
     <row r="6" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="25" t="s">
+      <c r="B6" s="23" t="s">
         <v>2</v>
       </c>
       <c r="C6" s="8" t="s">
@@ -972,75 +925,75 @@
       </c>
     </row>
     <row r="7" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="26"/>
+      <c r="B7" s="24"/>
       <c r="C7" s="5"/>
       <c r="D7" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="8" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="26"/>
+      <c r="B8" s="24"/>
       <c r="C8" s="5" t="s">
         <v>11</v>
       </c>
       <c r="D8" s="1"/>
     </row>
     <row r="9" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="26"/>
+      <c r="B9" s="24"/>
       <c r="C9" s="5"/>
       <c r="D9" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="10" spans="2:4" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="26"/>
+      <c r="B10" s="24"/>
       <c r="C10" s="11" t="s">
         <v>13</v>
       </c>
       <c r="D10" s="1"/>
     </row>
     <row r="11" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="26"/>
+      <c r="B11" s="24"/>
       <c r="C11" s="5"/>
       <c r="D11" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="12" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="26"/>
+      <c r="B12" s="24"/>
       <c r="C12" s="5"/>
       <c r="D12" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="13" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="26"/>
+      <c r="B13" s="24"/>
       <c r="C13" s="5" t="s">
         <v>16</v>
       </c>
       <c r="D13" s="1"/>
     </row>
     <row r="14" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="26"/>
+      <c r="B14" s="24"/>
       <c r="C14" s="5"/>
       <c r="D14" s="1" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="15" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="26"/>
+      <c r="B15" s="24"/>
       <c r="C15" s="5"/>
       <c r="D15" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="16" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="26"/>
+      <c r="B16" s="24"/>
       <c r="C16" s="6"/>
       <c r="D16" s="3"/>
     </row>
     <row r="17" spans="2:4" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="19" t="s">
+      <c r="B17" s="17" t="s">
         <v>21</v>
       </c>
       <c r="C17" s="4"/>
@@ -1049,7 +1002,7 @@
       </c>
     </row>
     <row r="18" spans="2:4" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="20"/>
+      <c r="B18" s="18"/>
       <c r="C18" s="5"/>
       <c r="D18" s="1" t="s">
         <v>20</v>
@@ -1065,7 +1018,7 @@
       </c>
     </row>
     <row r="20" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="19" t="s">
+      <c r="B20" s="17" t="s">
         <v>24</v>
       </c>
       <c r="C20" s="4"/>
@@ -1074,14 +1027,14 @@
       </c>
     </row>
     <row r="21" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="20"/>
+      <c r="B21" s="18"/>
       <c r="C21" s="5"/>
       <c r="D21" s="1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="22" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="20"/>
+      <c r="B22" s="18"/>
       <c r="C22" s="6"/>
       <c r="D22" s="3"/>
     </row>
@@ -1103,8 +1056,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1118,158 +1071,141 @@
       <c r="A1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="C1" s="22"/>
+      <c r="B1" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="20"/>
     </row>
     <row r="2" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="22"/>
+      <c r="C2" s="20"/>
     </row>
     <row r="3" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="22"/>
+      <c r="C3" s="20"/>
     </row>
     <row r="4" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="C4" s="24"/>
+      <c r="B4" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="22"/>
     </row>
     <row r="5" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="32" t="s">
+      <c r="A5" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="15" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="33"/>
-      <c r="B6" s="34" t="s">
+      <c r="A6" s="28"/>
+      <c r="B6" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="30"/>
+      <c r="C6" s="25"/>
     </row>
     <row r="7" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="33"/>
-      <c r="B7" s="35"/>
-      <c r="C7" s="31"/>
+      <c r="A7" s="28"/>
+      <c r="B7" s="30"/>
+      <c r="C7" s="26"/>
     </row>
     <row r="8" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="33"/>
-      <c r="B8" s="35"/>
-      <c r="C8" s="31" t="s">
-        <v>34</v>
+      <c r="A8" s="28"/>
+      <c r="B8" s="30"/>
+      <c r="C8" s="26" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="33"/>
-      <c r="B9" s="35"/>
-      <c r="C9" s="31"/>
+      <c r="A9" s="28"/>
+      <c r="B9" s="30"/>
+      <c r="C9" s="26"/>
     </row>
     <row r="10" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="33"/>
-      <c r="B10" s="35"/>
-      <c r="C10" s="31"/>
+      <c r="A10" s="28"/>
+      <c r="B10" s="30"/>
+      <c r="C10" s="26"/>
     </row>
     <row r="11" spans="1:3" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="33"/>
-      <c r="B11" s="35"/>
-      <c r="C11" s="31"/>
-    </row>
-    <row r="12" spans="1:3" ht="48.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="33"/>
-      <c r="C12" s="13" t="s">
+      <c r="A11" s="28"/>
+      <c r="B11" s="30"/>
+      <c r="C11" s="26"/>
+    </row>
+    <row r="12" spans="1:3" ht="48.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="38"/>
+      <c r="B12" s="39"/>
+      <c r="C12" s="40" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="48.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="33"/>
-      <c r="B13" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="C13" s="14"/>
+    <row r="13" spans="1:3" ht="48.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="31"/>
+      <c r="B13" s="32"/>
+      <c r="C13" s="33"/>
     </row>
     <row r="14" spans="1:3" ht="48.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="27" t="s">
-        <v>29</v>
-      </c>
-      <c r="B14" s="39"/>
-      <c r="C14" s="46" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="63" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="28"/>
-      <c r="B15" s="36"/>
-      <c r="C15" s="47"/>
+      <c r="A14" s="34"/>
+      <c r="B14" s="35"/>
+      <c r="C14" s="36"/>
+    </row>
+    <row r="15" spans="1:3" ht="63" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="34"/>
+      <c r="B15" s="35"/>
+      <c r="C15" s="36"/>
     </row>
     <row r="16" spans="1:3" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="B16" s="40" t="s">
-        <v>31</v>
-      </c>
-      <c r="C16" s="45"/>
+      <c r="A16" s="34"/>
+      <c r="B16" s="37"/>
+      <c r="C16" s="37"/>
     </row>
     <row r="17" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="29"/>
-      <c r="B17" s="41"/>
-      <c r="C17" s="43"/>
+      <c r="A17" s="34"/>
+      <c r="B17" s="37"/>
+      <c r="C17" s="37"/>
     </row>
     <row r="18" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="29"/>
-      <c r="B18" s="41"/>
-      <c r="C18" s="43"/>
-    </row>
-    <row r="19" spans="1:3" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="28"/>
-      <c r="B19" s="42"/>
-      <c r="C19" s="44"/>
+      <c r="A18" s="34"/>
+      <c r="B18" s="37"/>
+      <c r="C18" s="37"/>
+    </row>
+    <row r="19" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="34"/>
+      <c r="B19" s="37"/>
+      <c r="C19" s="37"/>
     </row>
     <row r="20" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="37"/>
-      <c r="B20" s="37"/>
-      <c r="C20" s="38"/>
+      <c r="A20" s="16"/>
+      <c r="B20" s="16"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="37"/>
-      <c r="B21" s="37"/>
-      <c r="C21" s="38"/>
+      <c r="A21" s="16"/>
+      <c r="B21" s="16"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="37"/>
-      <c r="B22" s="38"/>
-      <c r="C22" s="38"/>
+      <c r="A22" s="16"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="37"/>
-      <c r="B23" s="38"/>
-      <c r="C23" s="38"/>
+      <c r="A23" s="16"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="37"/>
-      <c r="B24" s="38"/>
-      <c r="C24" s="38"/>
+      <c r="A24" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="15">
@@ -1281,13 +1217,13 @@
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="C6:C7"/>
-    <mergeCell ref="A5:A13"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="C8:C11"/>
     <mergeCell ref="B8:B11"/>
     <mergeCell ref="B16:B19"/>
     <mergeCell ref="C16:C19"/>
     <mergeCell ref="B14:B15"/>
+    <mergeCell ref="A5:A12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
